--- a/listas/eletronicos.xlsx
+++ b/listas/eletronicos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marceloibarra\Documents\GitHub\Black Friday\listas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B11095-D24F-4E53-87DD-0EC7074136AA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531F55C1-5EB9-4ACB-B7BC-81D93AE75724}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16140" windowHeight="10995" xr2:uid="{9AE11E2F-CC23-4F41-B305-577D3EFAC223}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="BLACK FRIDAY" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'BLACK FRIDAY'!$A$2:$C$195</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'BLACK FRIDAY'!$A$1:$F$195</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'BLACK FRIDAY'!$A$2:$C$194</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'BLACK FRIDAY'!$A$1:$F$194</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="196">
   <si>
     <t>Codigo</t>
   </si>
@@ -416,9 +416,6 @@
   </si>
   <si>
     <t xml:space="preserve">TV LED JVC UHD 4K 65'' LT-65KB575 ANDROID ISDBT </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TV LED LG 32'' 32LH500B HD 110V + CONVERSOR DIGITAL EV-9900D </t>
   </si>
   <si>
     <t>TV LED SAMSUNG 32'' UN32J4300DH SMART HD</t>
@@ -856,6 +853,9 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -864,9 +864,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1182,11 +1179,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{750EF20E-79C9-4A10-AE58-97982A08C236}">
-  <dimension ref="A1:G196"/>
+  <dimension ref="A1:G195"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <pane ySplit="2" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A148" sqref="A148:XFD148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1198,14 +1195,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="27"/>
+      <c r="A1" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="28"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1219,13 +1216,13 @@
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -1371,7 +1368,7 @@
       <c r="A9" s="7">
         <v>123327</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="25" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="9">
@@ -1441,7 +1438,7 @@
         <v>136592</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C12" s="9">
         <v>221</v>
@@ -1464,7 +1461,7 @@
         <v>136595</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C13" s="9">
         <v>325</v>
@@ -1487,7 +1484,7 @@
         <v>124085</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C14" s="9">
         <v>426</v>
@@ -1602,7 +1599,7 @@
         <v>147960</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C19" s="9">
         <v>109</v>
@@ -1625,7 +1622,7 @@
         <v>121389</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C20" s="9">
         <v>35.9</v>
@@ -1648,7 +1645,7 @@
         <v>121391</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C21" s="9">
         <v>45.9</v>
@@ -1671,7 +1668,7 @@
         <v>121390</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C22" s="9">
         <v>49.9</v>
@@ -1694,7 +1691,7 @@
         <v>121393</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C23" s="9">
         <v>39.9</v>
@@ -3511,7 +3508,7 @@
         <v>137430</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C102" s="9">
         <v>159.9</v>
@@ -3718,7 +3715,7 @@
         <v>143176</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C111" s="9">
         <v>199.9</v>
@@ -3741,7 +3738,7 @@
         <v>122563</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C112" s="9">
         <v>164.9</v>
@@ -3764,7 +3761,7 @@
         <v>137805</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C113" s="9">
         <v>689.9</v>
@@ -3810,7 +3807,7 @@
         <v>132148</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C115" s="9">
         <v>680</v>
@@ -3833,7 +3830,7 @@
         <v>132147</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C116" s="9">
         <v>795</v>
@@ -3856,7 +3853,7 @@
         <v>132159</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C117" s="9">
         <v>729</v>
@@ -3879,7 +3876,7 @@
         <v>125772</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C118" s="9">
         <v>514</v>
@@ -3902,7 +3899,7 @@
         <v>125771</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C119" s="9">
         <v>640</v>
@@ -3925,7 +3922,7 @@
         <v>125770</v>
       </c>
       <c r="B120" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C120" s="9">
         <v>785</v>
@@ -3971,7 +3968,7 @@
         <v>117190</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C122" s="9">
         <v>299.89999999999998</v>
@@ -4187,11 +4184,11 @@
         <v>148</v>
       </c>
       <c r="E131" s="17">
-        <f t="shared" ref="E131:E162" si="8">F131/D131</f>
+        <f t="shared" ref="E131:E161" si="8">F131/D131</f>
         <v>8.851351351351347E-2</v>
       </c>
       <c r="F131" s="18">
-        <f t="shared" ref="F131:F162" si="9">D131-C131</f>
+        <f t="shared" ref="F131:F161" si="9">D131-C131</f>
         <v>13.099999999999994</v>
       </c>
       <c r="G131" s="1"/>
@@ -4566,158 +4563,158 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="7">
-        <v>139078</v>
+        <v>134082</v>
       </c>
       <c r="B148" s="8" t="s">
         <v>129</v>
       </c>
       <c r="C148" s="9">
-        <v>119.9</v>
+        <v>224.9</v>
       </c>
       <c r="D148" s="9">
-        <v>159.99</v>
+        <v>240</v>
       </c>
       <c r="E148" s="17">
         <f t="shared" si="8"/>
-        <v>0.25057816113507098</v>
+        <v>6.2916666666666649E-2</v>
       </c>
       <c r="F148" s="18">
         <f t="shared" si="9"/>
-        <v>40.090000000000003</v>
+        <v>15.099999999999994</v>
       </c>
       <c r="G148" s="1"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="7">
-        <v>134082</v>
+        <v>134083</v>
       </c>
       <c r="B149" s="8" t="s">
         <v>130</v>
       </c>
       <c r="C149" s="9">
-        <v>224.9</v>
+        <v>329.9</v>
       </c>
       <c r="D149" s="9">
-        <v>240</v>
+        <v>375</v>
       </c>
       <c r="E149" s="17">
         <f t="shared" si="8"/>
-        <v>6.2916666666666649E-2</v>
+        <v>0.12026666666666673</v>
       </c>
       <c r="F149" s="18">
         <f t="shared" si="9"/>
-        <v>15.099999999999994</v>
+        <v>45.100000000000023</v>
       </c>
       <c r="G149" s="1"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="7">
-        <v>134083</v>
+        <v>139137</v>
       </c>
       <c r="B150" s="8" t="s">
         <v>131</v>
       </c>
       <c r="C150" s="9">
-        <v>329.9</v>
+        <v>349.9</v>
       </c>
       <c r="D150" s="9">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="E150" s="17">
         <f t="shared" si="8"/>
-        <v>0.12026666666666673</v>
+        <v>7.9210526315789537E-2</v>
       </c>
       <c r="F150" s="18">
         <f t="shared" si="9"/>
-        <v>45.100000000000023</v>
+        <v>30.100000000000023</v>
       </c>
       <c r="G150" s="1"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="7">
-        <v>139137</v>
+        <v>134711</v>
       </c>
       <c r="B151" s="8" t="s">
         <v>132</v>
       </c>
       <c r="C151" s="9">
-        <v>349.9</v>
+        <v>424.9</v>
       </c>
       <c r="D151" s="9">
-        <v>380</v>
+        <v>470</v>
       </c>
       <c r="E151" s="17">
         <f t="shared" si="8"/>
-        <v>7.9210526315789537E-2</v>
+        <v>9.5957446808510691E-2</v>
       </c>
       <c r="F151" s="18">
         <f t="shared" si="9"/>
-        <v>30.100000000000023</v>
+        <v>45.100000000000023</v>
       </c>
       <c r="G151" s="1"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="7">
-        <v>134711</v>
+        <v>133953</v>
       </c>
       <c r="B152" s="8" t="s">
         <v>133</v>
       </c>
       <c r="C152" s="9">
-        <v>424.9</v>
+        <v>419.9</v>
       </c>
       <c r="D152" s="9">
-        <v>470</v>
+        <v>535</v>
       </c>
       <c r="E152" s="17">
         <f t="shared" si="8"/>
-        <v>9.5957446808510691E-2</v>
+        <v>0.2151401869158879</v>
       </c>
       <c r="F152" s="18">
         <f t="shared" si="9"/>
-        <v>45.100000000000023</v>
+        <v>115.10000000000002</v>
       </c>
       <c r="G152" s="1"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="7">
-        <v>133953</v>
+        <v>134710</v>
       </c>
       <c r="B153" s="8" t="s">
         <v>134</v>
       </c>
       <c r="C153" s="9">
-        <v>419.9</v>
+        <v>409.9</v>
       </c>
       <c r="D153" s="9">
-        <v>535</v>
+        <v>480</v>
       </c>
       <c r="E153" s="17">
         <f t="shared" si="8"/>
-        <v>0.2151401869158879</v>
+        <v>0.14604166666666671</v>
       </c>
       <c r="F153" s="18">
         <f t="shared" si="9"/>
-        <v>115.10000000000002</v>
+        <v>70.100000000000023</v>
       </c>
       <c r="G153" s="1"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="7">
-        <v>134710</v>
+        <v>138385</v>
       </c>
       <c r="B154" s="8" t="s">
         <v>135</v>
       </c>
       <c r="C154" s="9">
-        <v>409.9</v>
+        <v>449.9</v>
       </c>
       <c r="D154" s="9">
-        <v>480</v>
+        <v>520</v>
       </c>
       <c r="E154" s="17">
         <f t="shared" si="8"/>
-        <v>0.14604166666666671</v>
+        <v>0.13480769230769235</v>
       </c>
       <c r="F154" s="18">
         <f t="shared" si="9"/>
@@ -4727,20 +4724,20 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="7">
-        <v>138385</v>
+        <v>133956</v>
       </c>
       <c r="B155" s="8" t="s">
         <v>136</v>
       </c>
       <c r="C155" s="9">
-        <v>449.9</v>
+        <v>739.9</v>
       </c>
       <c r="D155" s="9">
-        <v>520</v>
+        <v>810</v>
       </c>
       <c r="E155" s="17">
         <f t="shared" si="8"/>
-        <v>0.13480769230769235</v>
+        <v>8.6543209876543237E-2</v>
       </c>
       <c r="F155" s="18">
         <f t="shared" si="9"/>
@@ -4750,421 +4747,421 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="7">
-        <v>133956</v>
+        <v>133957</v>
       </c>
       <c r="B156" s="8" t="s">
         <v>137</v>
       </c>
       <c r="C156" s="9">
-        <v>739.9</v>
+        <v>909.9</v>
       </c>
       <c r="D156" s="9">
-        <v>810</v>
+        <v>1160</v>
       </c>
       <c r="E156" s="17">
         <f t="shared" si="8"/>
-        <v>8.6543209876543237E-2</v>
+        <v>0.21560344827586209</v>
       </c>
       <c r="F156" s="18">
         <f t="shared" si="9"/>
-        <v>70.100000000000023</v>
+        <v>250.10000000000002</v>
       </c>
       <c r="G156" s="1"/>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="7">
-        <v>133957</v>
+        <v>134713</v>
       </c>
       <c r="B157" s="8" t="s">
         <v>138</v>
       </c>
       <c r="C157" s="9">
-        <v>909.9</v>
+        <v>1909.9</v>
       </c>
       <c r="D157" s="9">
-        <v>1160</v>
+        <v>2220</v>
       </c>
       <c r="E157" s="17">
         <f t="shared" si="8"/>
-        <v>0.21560344827586209</v>
+        <v>0.13968468468468465</v>
       </c>
       <c r="F157" s="18">
         <f t="shared" si="9"/>
-        <v>250.10000000000002</v>
+        <v>310.09999999999991</v>
       </c>
       <c r="G157" s="1"/>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="7">
-        <v>134713</v>
+        <v>123815</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="C158" s="9">
-        <v>1909.9</v>
+        <v>219.9</v>
       </c>
       <c r="D158" s="9">
-        <v>2220</v>
+        <v>221</v>
       </c>
       <c r="E158" s="17">
         <f t="shared" si="8"/>
-        <v>0.13968468468468465</v>
+        <v>4.9773755656108342E-3</v>
       </c>
       <c r="F158" s="18">
         <f t="shared" si="9"/>
-        <v>310.09999999999991</v>
+        <v>1.0999999999999943</v>
       </c>
       <c r="G158" s="1"/>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="7">
-        <v>123815</v>
+        <v>121157</v>
       </c>
       <c r="B159" s="8" t="s">
         <v>171</v>
       </c>
       <c r="C159" s="9">
-        <v>219.9</v>
+        <v>254.9</v>
       </c>
       <c r="D159" s="9">
-        <v>221</v>
+        <v>276</v>
       </c>
       <c r="E159" s="17">
         <f t="shared" si="8"/>
-        <v>4.9773755656108342E-3</v>
+        <v>7.6449275362318825E-2</v>
       </c>
       <c r="F159" s="18">
         <f t="shared" si="9"/>
-        <v>1.0999999999999943</v>
+        <v>21.099999999999994</v>
       </c>
       <c r="G159" s="1"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="7">
-        <v>121157</v>
+        <v>121158</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C160" s="9">
-        <v>254.9</v>
+        <v>389.9</v>
       </c>
       <c r="D160" s="9">
-        <v>276</v>
+        <v>419</v>
       </c>
       <c r="E160" s="17">
         <f t="shared" si="8"/>
-        <v>7.6449275362318825E-2</v>
+        <v>6.9451073985680248E-2</v>
       </c>
       <c r="F160" s="18">
         <f t="shared" si="9"/>
-        <v>21.099999999999994</v>
+        <v>29.100000000000023</v>
       </c>
       <c r="G160" s="1"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="7">
-        <v>121158</v>
+        <v>121159</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="C161" s="9">
-        <v>389.9</v>
+        <v>464.9</v>
       </c>
       <c r="D161" s="9">
-        <v>419</v>
+        <v>485</v>
       </c>
       <c r="E161" s="17">
         <f t="shared" si="8"/>
-        <v>6.9451073985680248E-2</v>
+        <v>4.1443298969072215E-2</v>
       </c>
       <c r="F161" s="18">
         <f t="shared" si="9"/>
-        <v>29.100000000000023</v>
+        <v>20.100000000000023</v>
       </c>
       <c r="G161" s="1"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="7">
-        <v>121159</v>
+        <v>120903</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="C162" s="9">
-        <v>464.9</v>
+        <v>579.9</v>
       </c>
       <c r="D162" s="9">
-        <v>485</v>
+        <v>638</v>
       </c>
       <c r="E162" s="17">
-        <f t="shared" si="8"/>
-        <v>4.1443298969072215E-2</v>
+        <f t="shared" ref="E162:E184" si="10">F162/D162</f>
+        <v>9.1065830721003174E-2</v>
       </c>
       <c r="F162" s="18">
-        <f t="shared" si="9"/>
-        <v>20.100000000000023</v>
+        <f t="shared" ref="F162:F184" si="11">D162-C162</f>
+        <v>58.100000000000023</v>
       </c>
       <c r="G162" s="1"/>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="7">
-        <v>120903</v>
+        <v>129470</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C163" s="9">
-        <v>579.9</v>
+        <v>529.9</v>
       </c>
       <c r="D163" s="9">
-        <v>638</v>
+        <v>765</v>
       </c>
       <c r="E163" s="17">
-        <f t="shared" ref="E163:E194" si="10">F163/D163</f>
-        <v>9.1065830721003174E-2</v>
+        <f t="shared" si="10"/>
+        <v>0.30732026143790853</v>
       </c>
       <c r="F163" s="18">
-        <f t="shared" ref="F163:F185" si="11">D163-C163</f>
-        <v>58.100000000000023</v>
+        <f t="shared" si="11"/>
+        <v>235.10000000000002</v>
       </c>
       <c r="G163" s="1"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="7">
-        <v>129470</v>
+        <v>122564</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C164" s="9">
-        <v>529.9</v>
+        <v>664.9</v>
       </c>
       <c r="D164" s="9">
-        <v>765</v>
+        <v>730</v>
       </c>
       <c r="E164" s="17">
         <f t="shared" si="10"/>
-        <v>0.30732026143790853</v>
+        <v>8.9178082191780847E-2</v>
       </c>
       <c r="F164" s="18">
         <f t="shared" si="11"/>
-        <v>235.10000000000002</v>
+        <v>65.100000000000023</v>
       </c>
       <c r="G164" s="1"/>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="7">
-        <v>122564</v>
+        <v>139098</v>
       </c>
       <c r="B165" s="8" t="s">
         <v>174</v>
       </c>
       <c r="C165" s="9">
-        <v>664.9</v>
+        <v>599.9</v>
       </c>
       <c r="D165" s="9">
-        <v>730</v>
+        <v>875</v>
       </c>
       <c r="E165" s="17">
         <f t="shared" si="10"/>
-        <v>8.9178082191780847E-2</v>
+        <v>0.31440000000000001</v>
       </c>
       <c r="F165" s="18">
         <f t="shared" si="11"/>
-        <v>65.100000000000023</v>
+        <v>275.10000000000002</v>
       </c>
       <c r="G165" s="1"/>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="7">
-        <v>139098</v>
+        <v>148663</v>
       </c>
       <c r="B166" s="8" t="s">
         <v>175</v>
       </c>
       <c r="C166" s="9">
-        <v>599.9</v>
+        <v>659.9</v>
       </c>
       <c r="D166" s="9">
-        <v>875</v>
+        <v>800</v>
       </c>
       <c r="E166" s="17">
         <f t="shared" si="10"/>
-        <v>0.31440000000000001</v>
+        <v>0.17512500000000003</v>
       </c>
       <c r="F166" s="18">
         <f t="shared" si="11"/>
-        <v>275.10000000000002</v>
+        <v>140.10000000000002</v>
       </c>
       <c r="G166" s="1"/>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="7">
-        <v>148663</v>
+        <v>129465</v>
       </c>
       <c r="B167" s="8" t="s">
         <v>176</v>
       </c>
       <c r="C167" s="9">
-        <v>659.9</v>
+        <v>1049.9000000000001</v>
       </c>
       <c r="D167" s="9">
-        <v>800</v>
+        <v>1375</v>
       </c>
       <c r="E167" s="17">
         <f t="shared" si="10"/>
-        <v>0.17512500000000003</v>
+        <v>0.23643636363636358</v>
       </c>
       <c r="F167" s="18">
         <f t="shared" si="11"/>
-        <v>140.10000000000002</v>
+        <v>325.09999999999991</v>
       </c>
       <c r="G167" s="1"/>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="7">
-        <v>129465</v>
+        <v>148664</v>
       </c>
       <c r="B168" s="8" t="s">
         <v>177</v>
       </c>
       <c r="C168" s="9">
-        <v>1049.9000000000001</v>
+        <v>1099.9000000000001</v>
       </c>
       <c r="D168" s="9">
-        <v>1375</v>
+        <v>1260</v>
       </c>
       <c r="E168" s="17">
         <f t="shared" si="10"/>
-        <v>0.23643636363636358</v>
+        <v>0.12706349206349199</v>
       </c>
       <c r="F168" s="18">
         <f t="shared" si="11"/>
-        <v>325.09999999999991</v>
+        <v>160.09999999999991</v>
       </c>
       <c r="G168" s="1"/>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="7">
-        <v>148664</v>
+        <v>148665</v>
       </c>
       <c r="B169" s="8" t="s">
         <v>178</v>
       </c>
       <c r="C169" s="9">
-        <v>1099.9000000000001</v>
+        <v>1649.9</v>
       </c>
       <c r="D169" s="9">
-        <v>1260</v>
+        <v>1900</v>
       </c>
       <c r="E169" s="17">
         <f t="shared" si="10"/>
-        <v>0.12706349206349199</v>
+        <v>0.13163157894736838</v>
       </c>
       <c r="F169" s="18">
         <f t="shared" si="11"/>
-        <v>160.09999999999991</v>
+        <v>250.09999999999991</v>
       </c>
       <c r="G169" s="1"/>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="7">
-        <v>148665</v>
+        <v>126157</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="C170" s="9">
-        <v>1649.9</v>
+        <v>2199.9</v>
       </c>
       <c r="D170" s="9">
-        <v>1900</v>
+        <v>3150</v>
       </c>
       <c r="E170" s="17">
         <f t="shared" si="10"/>
-        <v>0.13163157894736838</v>
+        <v>0.30161904761904756</v>
       </c>
       <c r="F170" s="18">
         <f t="shared" si="11"/>
-        <v>250.09999999999991</v>
+        <v>950.09999999999991</v>
       </c>
       <c r="G170" s="1"/>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" s="7">
-        <v>126157</v>
+        <v>148667</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="C171" s="9">
-        <v>2199.9</v>
+        <v>4349.8999999999996</v>
       </c>
       <c r="D171" s="9">
-        <v>3150</v>
+        <v>4650</v>
       </c>
       <c r="E171" s="17">
         <f t="shared" si="10"/>
-        <v>0.30161904761904756</v>
+        <v>6.4537634408602232E-2</v>
       </c>
       <c r="F171" s="18">
         <f t="shared" si="11"/>
-        <v>950.09999999999991</v>
+        <v>300.10000000000036</v>
       </c>
       <c r="G171" s="1"/>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" s="7">
-        <v>148667</v>
+        <v>126170</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="C172" s="9">
-        <v>4349.8999999999996</v>
+        <v>1319.9</v>
       </c>
       <c r="D172" s="9">
-        <v>4650</v>
+        <v>1600</v>
       </c>
       <c r="E172" s="17">
         <f t="shared" si="10"/>
-        <v>6.4537634408602232E-2</v>
+        <v>0.17506249999999995</v>
       </c>
       <c r="F172" s="18">
         <f t="shared" si="11"/>
-        <v>300.10000000000036</v>
+        <v>280.09999999999991</v>
       </c>
       <c r="G172" s="1"/>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" s="7">
-        <v>126170</v>
+        <v>125289</v>
       </c>
       <c r="B173" s="8" t="s">
         <v>142</v>
       </c>
       <c r="C173" s="9">
-        <v>1319.9</v>
+        <v>14.9</v>
       </c>
       <c r="D173" s="9">
-        <v>1600</v>
+        <v>35</v>
       </c>
       <c r="E173" s="17">
         <f t="shared" si="10"/>
-        <v>0.17506249999999995</v>
+        <v>0.57428571428571429</v>
       </c>
       <c r="F173" s="18">
         <f t="shared" si="11"/>
-        <v>280.09999999999991</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="G173" s="1"/>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" s="7">
-        <v>125289</v>
+        <v>125292</v>
       </c>
       <c r="B174" s="8" t="s">
         <v>143</v>
@@ -5173,21 +5170,21 @@
         <v>14.9</v>
       </c>
       <c r="D174" s="9">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E174" s="17">
         <f t="shared" si="10"/>
-        <v>0.57428571428571429</v>
+        <v>0.62750000000000006</v>
       </c>
       <c r="F174" s="18">
         <f t="shared" si="11"/>
-        <v>20.100000000000001</v>
+        <v>25.1</v>
       </c>
       <c r="G174" s="1"/>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" s="7">
-        <v>125292</v>
+        <v>125294</v>
       </c>
       <c r="B175" s="8" t="s">
         <v>144</v>
@@ -5210,7 +5207,7 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" s="7">
-        <v>125294</v>
+        <v>125293</v>
       </c>
       <c r="B176" s="8" t="s">
         <v>145</v>
@@ -5233,7 +5230,7 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" s="7">
-        <v>125293</v>
+        <v>125296</v>
       </c>
       <c r="B177" s="8" t="s">
         <v>146</v>
@@ -5256,7 +5253,7 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" s="7">
-        <v>125296</v>
+        <v>125295</v>
       </c>
       <c r="B178" s="8" t="s">
         <v>147</v>
@@ -5279,7 +5276,7 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" s="7">
-        <v>125295</v>
+        <v>136636</v>
       </c>
       <c r="B179" s="8" t="s">
         <v>148</v>
@@ -5302,7 +5299,7 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" s="7">
-        <v>136636</v>
+        <v>125936</v>
       </c>
       <c r="B180" s="8" t="s">
         <v>149</v>
@@ -5325,10 +5322,10 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" s="7">
-        <v>125936</v>
+        <v>125935</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C181" s="9">
         <v>14.9</v>
@@ -5348,7 +5345,7 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" s="7">
-        <v>125935</v>
+        <v>125938</v>
       </c>
       <c r="B182" s="8" t="s">
         <v>150</v>
@@ -5371,7 +5368,7 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" s="7">
-        <v>125938</v>
+        <v>125937</v>
       </c>
       <c r="B183" s="8" t="s">
         <v>151</v>
@@ -5394,7 +5391,7 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" s="7">
-        <v>125937</v>
+        <v>125290</v>
       </c>
       <c r="B184" s="8" t="s">
         <v>152</v>
@@ -5403,56 +5400,56 @@
         <v>14.9</v>
       </c>
       <c r="D184" s="9">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E184" s="17">
         <f t="shared" si="10"/>
-        <v>0.62750000000000006</v>
+        <v>0.5033333333333333</v>
       </c>
       <c r="F184" s="18">
         <f t="shared" si="11"/>
-        <v>25.1</v>
+        <v>15.1</v>
       </c>
       <c r="G184" s="1"/>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A185" s="7">
-        <v>125290</v>
-      </c>
-      <c r="B185" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="C185" s="9">
-        <v>14.9</v>
-      </c>
-      <c r="D185" s="9">
-        <v>30</v>
-      </c>
-      <c r="E185" s="17">
-        <f t="shared" si="10"/>
-        <v>0.5033333333333333</v>
-      </c>
-      <c r="F185" s="18">
-        <f t="shared" si="11"/>
-        <v>15.1</v>
-      </c>
+      <c r="A185" s="7"/>
+      <c r="B185" s="8"/>
+      <c r="C185" s="9"/>
+      <c r="D185" s="9"/>
+      <c r="E185" s="17"/>
+      <c r="F185" s="18"/>
       <c r="G185" s="1"/>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A186" s="7"/>
-      <c r="B186" s="8"/>
-      <c r="C186" s="9"/>
-      <c r="D186" s="9"/>
-      <c r="E186" s="17"/>
-      <c r="F186" s="18"/>
+      <c r="A186" s="7">
+        <v>123993</v>
+      </c>
+      <c r="B186" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C186" s="9">
+        <v>45</v>
+      </c>
+      <c r="D186" s="9">
+        <v>74</v>
+      </c>
+      <c r="E186" s="17">
+        <f t="shared" ref="E186:E193" si="12">F186/D186</f>
+        <v>0.39189189189189189</v>
+      </c>
+      <c r="F186" s="18">
+        <f t="shared" ref="F186:F193" si="13">D186-C186</f>
+        <v>29</v>
+      </c>
       <c r="G186" s="1"/>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" s="7">
-        <v>123993</v>
+        <v>123992</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C187" s="9">
         <v>45</v>
@@ -5461,113 +5458,113 @@
         <v>74</v>
       </c>
       <c r="E187" s="17">
-        <f t="shared" ref="E187:E194" si="12">F187/D187</f>
+        <f t="shared" si="12"/>
         <v>0.39189189189189189</v>
       </c>
       <c r="F187" s="18">
-        <f t="shared" ref="F187:F194" si="13">D187-C187</f>
+        <f t="shared" si="13"/>
         <v>29</v>
       </c>
       <c r="G187" s="1"/>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" s="7">
-        <v>123992</v>
+        <v>132417</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C188" s="9">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="D188" s="9">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="E188" s="17">
         <f t="shared" si="12"/>
-        <v>0.39189189189189189</v>
+        <v>0.41463414634146339</v>
       </c>
       <c r="F188" s="18">
         <f t="shared" si="13"/>
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="G188" s="1"/>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" s="7">
-        <v>132417</v>
+        <v>125592</v>
       </c>
       <c r="B189" s="8" t="s">
         <v>190</v>
       </c>
       <c r="C189" s="9">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="D189" s="9">
-        <v>205</v>
+        <v>150</v>
       </c>
       <c r="E189" s="17">
         <f t="shared" si="12"/>
-        <v>0.41463414634146339</v>
+        <v>0.34</v>
       </c>
       <c r="F189" s="18">
         <f t="shared" si="13"/>
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="G189" s="1"/>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" s="7">
-        <v>125592</v>
+        <v>132259</v>
       </c>
       <c r="B190" s="8" t="s">
         <v>191</v>
       </c>
       <c r="C190" s="9">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="D190" s="9">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="E190" s="17">
         <f t="shared" si="12"/>
-        <v>0.34</v>
+        <v>0.37777777777777777</v>
       </c>
       <c r="F190" s="18">
         <f t="shared" si="13"/>
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="G190" s="1"/>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" s="7">
-        <v>132259</v>
+        <v>136746</v>
       </c>
       <c r="B191" s="8" t="s">
         <v>192</v>
       </c>
       <c r="C191" s="9">
-        <v>28</v>
+        <v>9.99</v>
       </c>
       <c r="D191" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="E191" s="17">
         <f t="shared" si="12"/>
-        <v>0.37777777777777777</v>
+        <v>0.37562499999999999</v>
       </c>
       <c r="F191" s="18">
         <f t="shared" si="13"/>
-        <v>17</v>
+        <v>6.01</v>
       </c>
       <c r="G191" s="1"/>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" s="7">
-        <v>136746</v>
+        <v>136750</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C192" s="9">
         <v>9.99</v>
@@ -5587,10 +5584,10 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" s="7">
-        <v>136750</v>
+        <v>136748</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C193" s="9">
         <v>9.99</v>
@@ -5608,43 +5605,20 @@
       </c>
       <c r="G193" s="1"/>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A194" s="7">
-        <v>136748</v>
-      </c>
-      <c r="B194" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="C194" s="9">
-        <v>9.99</v>
-      </c>
-      <c r="D194" s="9">
-        <v>16</v>
-      </c>
-      <c r="E194" s="17">
-        <f t="shared" si="12"/>
-        <v>0.37562499999999999</v>
-      </c>
-      <c r="F194" s="18">
-        <f t="shared" si="13"/>
-        <v>6.01</v>
-      </c>
+    <row r="194" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="20"/>
+      <c r="B194" s="21"/>
+      <c r="C194" s="22"/>
+      <c r="D194" s="23"/>
+      <c r="E194" s="24"/>
+      <c r="F194" s="23"/>
       <c r="G194" s="1"/>
     </row>
-    <row r="195" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="20"/>
-      <c r="B195" s="21"/>
-      <c r="C195" s="22"/>
-      <c r="D195" s="23"/>
-      <c r="E195" s="24"/>
-      <c r="F195" s="23"/>
-      <c r="G195" s="1"/>
-    </row>
-    <row r="196" spans="1:7" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="195" spans="1:7" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <autoFilter ref="A2:C195" xr:uid="{32000ECC-B7D9-425A-9DD1-55E700CE6D23}"/>
-  <sortState ref="A3:F194">
-    <sortCondition ref="B3:B194"/>
+  <autoFilter ref="A2:C194" xr:uid="{32000ECC-B7D9-425A-9DD1-55E700CE6D23}"/>
+  <sortState ref="A3:F193">
+    <sortCondition ref="B3:B193"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
